--- a/full_anno/all_anno/SERVICES_anno.xlsx
+++ b/full_anno/all_anno/SERVICES_anno.xlsx
@@ -4,19 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CPA-Short" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CPA-Long" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="DnRpeXJel9VWV15xztNE2e2OLdQvvyShwg26DfpsKHE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="M2EfKMG+gG+HD8PUwzT7F5b+Xks81VDPKCkK6fIZ284="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
   <si>
     <t>column</t>
   </si>
@@ -52,11 +54,7 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#AdministrativeCase</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#MedicalProcedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#TherapeuticArea
-</t>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#TherapeuticArea_specialtyName</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasIdentifier</t>
@@ -72,6 +70,9 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSpecialtyName</t>
   </si>
   <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=700232004&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
     <t>CEA</t>
   </si>
   <si>
@@ -81,18 +82,18 @@
     <t>2165-12-19 12:19:59</t>
   </si>
   <si>
-    <t>https://www.w3.org/2001/XMLSchema#dateTime</t>
-  </si>
-  <si>
     <t>MED</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#TherapeuticArea_specialtyName</t>
+    <t>Table</t>
   </si>
   <si>
     <t>CPA</t>
   </si>
   <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
   <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier
@@ -110,15 +114,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasTherapeuticArea
-</t>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#TherapeuticArea</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasTherapeuticArea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -164,11 +170,6 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
@@ -186,10 +187,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -203,9 +200,8 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -215,13 +211,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -324,59 +324,77 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,6 +405,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -595,16 +621,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="57.57"/>
-    <col customWidth="1" min="3" max="3" width="40.57"/>
+    <col customWidth="1" min="3" max="3" width="62.71"/>
     <col customWidth="1" min="4" max="4" width="64.29"/>
     <col customWidth="1" min="5" max="5" width="40.57"/>
     <col customWidth="1" min="6" max="6" width="55.43"/>
     <col customWidth="1" min="7" max="7" width="40.57"/>
     <col customWidth="1" min="8" max="8" width="99.71"/>
     <col customWidth="1" min="9" max="9" width="46.29"/>
-    <col customWidth="1" min="10" max="10" width="53.71"/>
+    <col customWidth="1" min="10" max="10" width="66.71"/>
     <col customWidth="1" min="11" max="11" width="12.14"/>
-    <col customWidth="1" min="12" max="12" width="53.71"/>
+    <col customWidth="1" min="12" max="12" width="66.71"/>
     <col customWidth="1" min="13" max="13" width="67.29"/>
     <col customWidth="1" min="14" max="32" width="8.71"/>
   </cols>
@@ -653,196 +679,98 @@
         <v>10</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="15" t="s">
+      <c r="L3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>49650.0</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="5">
         <v>42412.0</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5">
         <v>114867.0</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18"/>
+      <c r="L4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="27"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="27"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
+      <c r="A18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="21"/>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -1822,37 +1750,382 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" location="HealthcareEncounter" ref="B2"/>
     <hyperlink r:id="rId2" location="SubjectPseudoIdentifier" ref="D2"/>
     <hyperlink r:id="rId3" location="AdministrativeCase" ref="F2"/>
-    <hyperlink r:id="rId4" location="MedicalProcedure" ref="H2"/>
-    <hyperlink r:id="rId5" location="TherapeuticArea" ref="J2"/>
-    <hyperlink r:id="rId6" location="TherapeuticArea" ref="L2"/>
+    <hyperlink r:id="rId4" location="HealthcareEncounter" ref="H2"/>
+    <hyperlink r:id="rId5" location="TherapeuticArea_specialtyName" ref="J2"/>
+    <hyperlink r:id="rId6" location="TherapeuticArea_specialtyName" ref="L2"/>
     <hyperlink r:id="rId7" location="hasIdentifier" ref="B3"/>
     <hyperlink r:id="rId8" location="hasIdentifier" ref="D3"/>
     <hyperlink r:id="rId9" location="hasIdentifier" ref="F3"/>
     <hyperlink r:id="rId10" location="hasEventDateTime" ref="H3"/>
     <hyperlink r:id="rId11" location="hasSpecialtyName" ref="J3"/>
     <hyperlink r:id="rId12" location="hasSpecialtyName" ref="L3"/>
-    <hyperlink r:id="rId13" location="string" ref="C4"/>
+    <hyperlink r:id="rId13" ref="M3"/>
     <hyperlink r:id="rId14" location="string" ref="E4"/>
     <hyperlink r:id="rId15" location="string" ref="G4"/>
-    <hyperlink r:id="rId16" location="dateTime" ref="I4"/>
-    <hyperlink r:id="rId17" location="TherapeuticArea_specialtyName" ref="M4"/>
-    <hyperlink r:id="rId18" location="hasSubjectPseudoIdentifier" ref="C8"/>
-    <hyperlink r:id="rId19" location="hasAdministrativeCase" ref="C9"/>
-    <hyperlink r:id="rId20" location="hasSubjectPseudoIdentifier" ref="C10"/>
-    <hyperlink r:id="rId21" location="hasAdministrativeCase" ref="C11"/>
-    <hyperlink r:id="rId22" location="hasSubjectPseudoIdentifier" ref="C12"/>
-    <hyperlink r:id="rId23" location="hasEventDateTime" ref="C13"/>
-    <hyperlink r:id="rId24" location="hasTherapeuticArea" ref="C14"/>
-    <hyperlink r:id="rId25" location="hasTherapeuticArea" ref="C15"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="62.71"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasSubjectPseudoIdentifier" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasEventDateTime" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasSpecialtyName" ref="D8"/>
+    <hyperlink r:id="rId6" location="hasSpecialtyName" ref="D9"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="3" width="54.57"/>
+    <col customWidth="1" min="4" max="4" width="62.71"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasSubjectPseudoIdentifier" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasAdministrativeCase" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasSubjectPseudoIdentifier" ref="D8"/>
+    <hyperlink r:id="rId6" location="hasEventDateTime" ref="D9"/>
+    <hyperlink r:id="rId7" location="TherapeuticArea" ref="C10"/>
+    <hyperlink r:id="rId8" location="hasTherapeuticAre" ref="D10"/>
+    <hyperlink r:id="rId9" location="TherapeuticArea" ref="B11"/>
+    <hyperlink r:id="rId10" location="hasSpecialtyName" ref="D11"/>
+    <hyperlink r:id="rId11" location="TherapeuticArea" ref="C12"/>
+    <hyperlink r:id="rId12" location="hasTherapeuticArea" ref="D12"/>
+    <hyperlink r:id="rId13" location="TherapeuticArea" ref="B13"/>
+    <hyperlink r:id="rId14" location="hasSpecialtyName" ref="D13"/>
+  </hyperlinks>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>